--- a/React B10 G1/React_B10_G1(1).xlsx
+++ b/React B10 G1/React_B10_G1(1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashish\React\javascript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashish\React\javascript\React B10 G1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{409A1AEF-5467-4FF3-B83C-9B485AC1876A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5006BBDE-9700-4CEC-9A5A-DDD3B269FE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -49,6 +49,30 @@
       </text>
     </comment>
     <comment ref="H4" authorId="1" shapeId="0" xr:uid="{7E3B9A51-C2F8-48CC-A879-946CF9AA1A25}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kanchan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Not feeling well</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="1" shapeId="0" xr:uid="{2B36C572-9534-4C5A-98C6-935CCE2245F5}">
       <text>
         <r>
           <rPr>
@@ -130,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="13">
   <si>
     <t>Student Name</t>
   </si>
@@ -166,6 +190,9 @@
   </si>
   <si>
     <t xml:space="preserve">Asha </t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -578,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF336CF2-9F7E-9D47-A242-C3CB362C49F8}">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -615,7 +642,9 @@
       <c r="H1" s="4">
         <v>45299</v>
       </c>
-      <c r="I1" s="5"/>
+      <c r="I1" s="4">
+        <v>45300</v>
+      </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
@@ -653,7 +682,9 @@
       <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
@@ -691,7 +722,9 @@
       <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
@@ -729,7 +762,9 @@
       <c r="H4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
@@ -767,7 +802,9 @@
       <c r="H5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
@@ -805,7 +842,9 @@
       <c r="H6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
@@ -818,9 +857,14 @@
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
     </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F6 H2:H6" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F6 H2:I6" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/React B10 G1/React_B10_G1(1).xlsx
+++ b/React B10 G1/React_B10_G1(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashish\React\javascript\React B10 G1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5006BBDE-9700-4CEC-9A5A-DDD3B269FE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654C4B8F-6832-437D-BE72-695EF9FFEBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -120,6 +120,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="J5" authorId="1" shapeId="0" xr:uid="{A2BDE596-2F1F-45E5-8F1D-6FF0E89A53F4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Kanchan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Electricity cut</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C6" authorId="2" shapeId="0" xr:uid="{4B76430F-036D-0545-BD86-7FF3E142D70F}">
       <text>
         <r>
@@ -154,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="12">
   <si>
     <t>Student Name</t>
   </si>
@@ -190,9 +214,6 @@
   </si>
   <si>
     <t xml:space="preserve">Asha </t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -605,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF336CF2-9F7E-9D47-A242-C3CB362C49F8}">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -645,7 +666,9 @@
       <c r="I1" s="4">
         <v>45300</v>
       </c>
-      <c r="J1" s="5"/>
+      <c r="J1" s="4">
+        <v>45301</v>
+      </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
@@ -685,7 +708,9 @@
       <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="7"/>
+      <c r="J2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
@@ -725,7 +750,9 @@
       <c r="I3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="K3" s="7"/>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -765,7 +792,9 @@
       <c r="I4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="7"/>
+      <c r="J4" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="K4" s="7"/>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
@@ -805,7 +834,9 @@
       <c r="I5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="7"/>
+      <c r="J5" s="7" t="s">
+        <v>4</v>
+      </c>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
@@ -845,7 +876,9 @@
       <c r="I6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="7"/>
+      <c r="J6" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
@@ -857,14 +890,9 @@
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F6 H2:I6" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F6 H2:J6" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/React B10 G1/React_B10_G1(1).xlsx
+++ b/React B10 G1/React_B10_G1(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashish\React\javascript\React B10 G1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654C4B8F-6832-437D-BE72-695EF9FFEBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E0B5A4-05E9-4351-B845-8D989C17C45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="12">
   <si>
     <t>Student Name</t>
   </si>
@@ -629,7 +629,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -669,7 +669,9 @@
       <c r="J1" s="4">
         <v>45301</v>
       </c>
-      <c r="K1" s="5"/>
+      <c r="K1" s="4">
+        <v>45302</v>
+      </c>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
@@ -711,7 +713,9 @@
       <c r="J2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -753,7 +757,9 @@
       <c r="J3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
@@ -795,7 +801,9 @@
       <c r="J4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
@@ -837,7 +845,9 @@
       <c r="J5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
@@ -879,7 +889,9 @@
       <c r="J6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
@@ -892,7 +904,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F6 H2:J6" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F6 H2:K6" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>

--- a/React B10 G1/React_B10_G1(1).xlsx
+++ b/React B10 G1/React_B10_G1(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ashish\React\javascript\React B10 G1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E0B5A4-05E9-4351-B845-8D989C17C45A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795F27F8-D39B-483D-B96C-9BEB3FB18190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{F43F5E3C-0558-E346-B770-8540CD6B4863}"/>
   </bookViews>
@@ -178,7 +178,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="12">
   <si>
     <t>Student Name</t>
   </si>
@@ -629,7 +629,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -672,7 +672,9 @@
       <c r="K1" s="4">
         <v>45302</v>
       </c>
-      <c r="L1" s="5"/>
+      <c r="L1" s="4">
+        <v>45303</v>
+      </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -716,7 +718,9 @@
       <c r="K2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
@@ -760,7 +764,9 @@
       <c r="K3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="L3" s="7" t="s">
+        <v>3</v>
+      </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
@@ -804,7 +810,9 @@
       <c r="K4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="7"/>
+      <c r="L4" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
@@ -848,7 +856,9 @@
       <c r="K5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="7"/>
+      <c r="L5" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="M5" s="7"/>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -892,7 +902,9 @@
       <c r="K6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="7"/>
+      <c r="L6" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -904,7 +916,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F6 H2:K6" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F6 H2:L6" xr:uid="{F036FACA-372A-8349-BD3D-950830E988A4}">
       <formula1>"Present, Absent,Reason"</formula1>
     </dataValidation>
   </dataValidations>
